--- a/annotated_dataset/output_batch_1.xlsx
+++ b/annotated_dataset/output_batch_1.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathu\Desktop\Courses\4NL3\paraphrasing_detection\annotated_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C73D349-7B24-4646-9069-5BE2EE7EB05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933FB10E-1848-49D3-93EA-C9B938E85C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -41,6 +28,15 @@
     <t>Sentence 2</t>
   </si>
   <si>
+    <t>Word Similarity Score</t>
+  </si>
+  <si>
+    <t>Word Semantic Score</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
     <t>Actually, Chase tackled him.</t>
   </si>
   <si>
@@ -783,15 +779,6 @@
   </si>
   <si>
     <t>what do you want to live for?</t>
-  </si>
-  <si>
-    <t>Word Similarity Score</t>
-  </si>
-  <si>
-    <t>Word Semantic Score</t>
-  </si>
-  <si>
-    <t>Total Score</t>
   </si>
   <si>
     <t>Kevin?</t>
@@ -926,7 +913,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -937,27 +927,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -966,8 +941,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1276,17 +1251,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="67" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="100.69140625" customWidth="1"/>
-    <col min="2" max="2" width="90.4609375" customWidth="1"/>
-    <col min="3" max="3" width="22.921875" customWidth="1"/>
-    <col min="4" max="4" width="18.61328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.84375" customWidth="1"/>
+    <col min="1" max="1" width="35.53515625" customWidth="1"/>
+    <col min="2" max="2" width="32.921875" customWidth="1"/>
+    <col min="3" max="3" width="19.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1297,1762 +1272,1887 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>252</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.41666666666666657</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <f>0.6*C2+0.4*D2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="0">0.6*C3+0.4*D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.87424242424242427</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.8</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.54708222811671092</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.75</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.45804195804195802</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.60606060606060597</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.875</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.5</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.45</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.24358974358974361</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.54545454545454541</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.875</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.7857142857142857</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.9</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.45</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.56862745098039214</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.77493010251630945</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.65</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.83333333333333326</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.30952380952380948</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.875</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.91666666666666674</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.22500000000000001</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.51587301587301582</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.375</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.79285714285714293</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.47023809523809518</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.51298701298701299</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.78219696969696972</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.8</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.5</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.8784313725490196</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.75</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.75</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.64601063829787231</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.5</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.85714285714285721</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.9</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.43076923076923079</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.91727272727272724</v>
+      </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.72916666666666674</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.625</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.75</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.26785714285714279</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.42727272727272719</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.26666666666666672</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="102" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.8311195445920303</v>
+      </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.671875</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.29285714285714282</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E130" si="1">0.6*C67+0.4*D67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.6333333333333333</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.82499999999999996</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.79431524547803622</v>
+      </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.77777777777777779</v>
+      </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.72115384615384615</v>
+      </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.54947368421052634</v>
+      </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.42954545454545462</v>
+      </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.7857142857142857</v>
+      </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.66818181818181821</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.75</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.7</v>
+      </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.26666666666666672</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.63636363636363635</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.75</v>
+      </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.70714285714285707</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.5357142857142857</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.26666666666666672</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.625</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.5892857142857143</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.62272727272727268</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.80625000000000002</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.72916666666666674</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.5357142857142857</v>
+      </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.71405228758169936</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.87931034482758619</v>
+      </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.87121212121212122</v>
+      </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.9</v>
+      </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.3666666666666667</v>
+      </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.76666666666666661</v>
+      </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.73333333333333339</v>
+      </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="C101" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.67999999999999994</v>
+      </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.76923076923076927</v>
+      </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.6</v>
+      </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.88932806324110669</v>
+      </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.83333333333333326</v>
+      </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.55555555555555558</v>
+      </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.58741258741258739</v>
+      </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C110" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1</v>
+      </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.7</v>
+      </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.1714285714285714</v>
+      </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C115" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.84593837535014005</v>
+      </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C116" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.72380952380952379</v>
+      </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C117" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0.29166666666666657</v>
+      </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.88888888888888884</v>
+      </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.75</v>
+      </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C120" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C121" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.5</v>
+      </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.59340659340659341</v>
+      </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.64615384615384608</v>
+      </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C124" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C125" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.80808080808080807</v>
+      </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C126" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.63492063492063489</v>
+      </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3063,24 +3163,26 @@
       <c r="B127" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="2"/>
+      <c r="C127" s="2">
+        <v>1</v>
+      </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C128" s="2"/>
+      <c r="C128" s="2">
+        <v>0.65530303030303028</v>
+      </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3091,108 +3193,116 @@
       <c r="B129" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C129" s="2"/>
+      <c r="C129" s="2">
+        <v>0.66964285714285721</v>
+      </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C130" s="2"/>
+      <c r="C130" s="2">
+        <v>0.6785714285714286</v>
+      </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C131" s="2"/>
+      <c r="C131" s="2">
+        <v>0.65277777777777779</v>
+      </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2">
-        <f t="shared" ref="E131:E146" si="2">0.6*C131+0.4*D131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C132" s="2"/>
+      <c r="C132" s="2">
+        <v>0.81818181818181823</v>
+      </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C133" s="2"/>
+      <c r="C133" s="2">
+        <v>0.82638888888888884</v>
+      </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="2"/>
+      <c r="C134" s="2">
+        <v>0.81746031746031744</v>
+      </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="2"/>
+      <c r="C135" s="2">
+        <v>0.6785714285714286</v>
+      </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="102" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="2"/>
+      <c r="C136" s="2">
+        <v>0.2489177489177489</v>
+      </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3203,24 +3313,26 @@
       <c r="B137" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C137" s="2"/>
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="2"/>
+      <c r="C138" s="2">
+        <v>0.75661375661375663</v>
+      </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3231,10 +3343,11 @@
       <c r="B139" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="2"/>
+      <c r="C139" s="2">
+        <v>0.41666666666666657</v>
+      </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3245,24 +3358,26 @@
       <c r="B140" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="2"/>
+      <c r="C140" s="2">
+        <v>0.875</v>
+      </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="2"/>
+      <c r="C141" s="2">
+        <v>0.67238749046529367</v>
+      </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3273,38 +3388,41 @@
       <c r="B142" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="2"/>
+      <c r="C142" s="2">
+        <v>0.875</v>
+      </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C143" s="2"/>
+      <c r="C143" s="2">
+        <v>0.73750000000000004</v>
+      </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C144" s="2"/>
+      <c r="C144" s="2">
+        <v>0.90909090909090906</v>
+      </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3315,10 +3433,11 @@
       <c r="B145" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C145" s="2"/>
+      <c r="C145" s="2">
+        <v>1</v>
+      </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3329,15 +3448,15 @@
       <c r="B146" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="2"/>
+      <c r="C146" s="2">
+        <v>0.5</v>
+      </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/annotated_dataset/output_batch_1.xlsx
+++ b/annotated_dataset/output_batch_1.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathu\Desktop\Courses\4NL3\paraphrasing_detection\annotated_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933FB10E-1848-49D3-93EA-C9B938E85C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277B1A5-2DB8-4492-893B-4BC784579F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1251,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1293,7 +1306,8 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>0</v>
+        <f>0.6*C2+0.4*D2</f>
+        <v>0.24999999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1308,7 +1322,8 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>0</v>
+        <f t="shared" ref="E3:E66" si="0">0.6*C3+0.4*D3</f>
+        <v>0.29249999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -1323,7 +1338,8 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.52454545454545454</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1338,7 +1354,8 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -1353,7 +1370,8 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.32824933687002655</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1368,6 +1386,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1383,7 +1402,8 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1398,7 +1418,8 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1413,7 +1434,8 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1428,7 +1450,8 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -1443,7 +1466,8 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.27482517482517482</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1458,7 +1482,8 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.36363636363636359</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1473,7 +1498,8 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1488,7 +1514,8 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1503,7 +1530,8 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.27</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -1518,7 +1546,8 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.14615384615384616</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1533,7 +1562,8 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.32727272727272722</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1548,7 +1578,8 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1563,7 +1594,8 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.47142857142857142</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1578,7 +1610,8 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1593,7 +1626,8 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1608,7 +1642,8 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.27</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -1623,7 +1658,8 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.34117647058823525</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
@@ -1638,7 +1674,8 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.46495806150978564</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1653,7 +1690,8 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1668,7 +1706,8 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1683,7 +1722,8 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.18571428571428569</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -1698,7 +1738,8 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1713,7 +1754,8 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1728,7 +1770,8 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1743,7 +1786,8 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -1758,7 +1802,8 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.30952380952380948</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1773,7 +1818,8 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1788,7 +1834,8 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1803,6 +1850,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1818,7 +1866,8 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.47571428571428576</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1833,7 +1882,8 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.21666666666666665</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1848,7 +1898,8 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1863,7 +1914,8 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.28214285714285708</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1878,7 +1930,8 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.30779220779220778</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -1893,7 +1946,8 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.4693181818181818</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1908,7 +1962,8 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.48</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1923,7 +1978,8 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -1938,7 +1994,8 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.52705882352941169</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1953,7 +2010,8 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1968,7 +2026,8 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1983,6 +2042,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1998,7 +2058,8 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.38760638297872335</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -2013,7 +2074,8 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -2028,7 +2090,8 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2043,7 +2106,8 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.51428571428571435</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -2058,7 +2122,8 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.54</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2073,7 +2138,8 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.25846153846153846</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2088,7 +2154,8 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -2103,7 +2170,8 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.55036363636363628</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2118,7 +2186,8 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.43750000000000006</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2133,7 +2202,8 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2148,7 +2218,8 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2163,7 +2234,8 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2178,7 +2250,8 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16071428571428567</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2193,7 +2266,8 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.25636363636363629</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -2208,7 +2282,8 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2223,6 +2298,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2238,7 +2314,8 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.49867172675521815</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -2253,7 +2330,8 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.40312500000000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2268,7 +2346,8 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2">
-        <v>0</v>
+        <f t="shared" ref="E67:E130" si="1">0.6*C67+0.4*D67</f>
+        <v>0.17571428571428568</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2283,6 +2362,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2298,7 +2378,8 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.37999999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2313,7 +2394,8 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.49499999999999994</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="145.75" x14ac:dyDescent="0.4">
@@ -2328,7 +2410,8 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.47658914728682172</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2343,7 +2426,8 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2358,7 +2442,8 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.43269230769230765</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
@@ -2373,7 +2458,8 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -2388,7 +2474,8 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3296842105263158</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -2403,7 +2490,8 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.25772727272727275</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
@@ -2418,7 +2506,8 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.47142857142857142</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2433,7 +2522,8 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.40090909090909094</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
@@ -2448,7 +2538,8 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
@@ -2463,7 +2554,8 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.42</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
@@ -2478,7 +2570,8 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.16000000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2493,7 +2586,8 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.38181818181818178</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
@@ -2508,7 +2602,8 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -2523,7 +2618,8 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.42428571428571421</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2538,7 +2634,8 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3214285714285714</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -2553,7 +2650,8 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.16000000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
@@ -2568,7 +2666,8 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
@@ -2583,7 +2682,8 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.35357142857142859</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
@@ -2598,7 +2698,8 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2613,7 +2714,8 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3736363636363636</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2628,7 +2730,8 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.48375000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
@@ -2643,7 +2746,8 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.43750000000000006</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
@@ -2658,7 +2762,8 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3214285714285714</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2673,7 +2778,8 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.42843137254901958</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -2688,7 +2794,8 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.52758620689655167</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2703,7 +2810,8 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.52272727272727271</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2718,7 +2826,8 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.54</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
@@ -2733,7 +2842,8 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.22</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2748,7 +2858,8 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
@@ -2763,7 +2874,8 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.44</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2778,7 +2890,8 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -2793,7 +2906,8 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2808,7 +2922,8 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
@@ -2823,7 +2938,8 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.36</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
@@ -2838,6 +2954,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2853,7 +2970,8 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.53359683794466395</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
@@ -2868,7 +2986,8 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2883,7 +3002,8 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2898,7 +3018,8 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.35244755244755244</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
@@ -2913,7 +3034,8 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2928,7 +3050,8 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.42</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2943,6 +3066,7 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2958,7 +3082,8 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10285714285714284</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -2973,7 +3098,8 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.21666666666666665</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2988,7 +3114,8 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.50756302521008401</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -3003,7 +3130,8 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.43428571428571427</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
@@ -3018,7 +3146,8 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17499999999999993</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3033,7 +3162,8 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -3048,7 +3178,8 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
@@ -3063,7 +3194,8 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.33</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3078,7 +3210,8 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3093,7 +3226,8 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.35604395604395606</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -3108,7 +3242,8 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.38769230769230761</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
@@ -3123,7 +3258,8 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3138,7 +3274,8 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.48484848484848481</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3153,7 +3290,8 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.38095238095238093</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
@@ -3168,7 +3306,8 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3183,7 +3322,8 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.39318181818181813</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
@@ -3198,7 +3338,8 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.4017857142857143</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3213,7 +3354,8 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.40714285714285714</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -3228,7 +3370,8 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2">
-        <v>0</v>
+        <f t="shared" ref="E131:E146" si="2">0.6*C131+0.4*D131</f>
+        <v>0.39166666666666666</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3243,7 +3386,8 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.49090909090909091</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3258,7 +3402,8 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.49583333333333329</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -3273,7 +3418,8 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.49047619047619045</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3288,7 +3434,8 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.40714285714285714</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="102" x14ac:dyDescent="0.4">
@@ -3303,7 +3450,8 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.14935064935064934</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
@@ -3318,6 +3466,7 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3333,7 +3482,8 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.45396825396825397</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
@@ -3348,7 +3498,8 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.24999999999999994</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
@@ -3363,7 +3514,8 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="160.30000000000001" x14ac:dyDescent="0.4">
@@ -3378,7 +3530,8 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.40343249427917621</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
@@ -3393,7 +3546,8 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3408,7 +3562,8 @@
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.4425</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3423,7 +3578,8 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
@@ -3438,7 +3594,8 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
@@ -3453,7 +3610,8 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/annotated_dataset/output_batch_1.xlsx
+++ b/annotated_dataset/output_batch_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathu\Desktop\Courses\4NL3\paraphrasing_detection\annotated_dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayba\Downloads\paraphrasing_detection\annotated_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277B1A5-2DB8-4492-893B-4BC784579F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435FE56F-9142-4CDE-ADC6-01920AEE651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1264,20 +1264,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.53515625" customWidth="1"/>
-    <col min="2" max="2" width="32.921875" customWidth="1"/>
-    <col min="3" max="3" width="19.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1304,13 +1304,15 @@
       <c r="C2" s="2">
         <v>0.41666666666666657</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E2" s="2">
         <f>0.6*C2+0.4*D2</f>
-        <v>0.24999999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1320,13 +1322,15 @@
       <c r="C3" s="2">
         <v>0.48749999999999999</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E66" si="0">0.6*C3+0.4*D3</f>
-        <v>0.29249999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>0.49249999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1336,13 +1340,15 @@
       <c r="C4" s="2">
         <v>0.87424242424242427</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>0.52454545454545454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.92454545454545456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1352,13 +1358,15 @@
       <c r="C5" s="2">
         <v>0.8</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1368,13 +1376,15 @@
       <c r="C6" s="2">
         <v>0.54708222811671092</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>0.32824933687002655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.72824933687002658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1384,13 +1394,15 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1400,13 +1412,15 @@
       <c r="C8" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1416,13 +1430,15 @@
       <c r="C9" s="2">
         <v>0.75</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1432,13 +1448,15 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1448,13 +1466,15 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1464,13 +1484,15 @@
       <c r="C12" s="2">
         <v>0.45804195804195802</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>0.27482517482517482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.67482517482517479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1480,13 +1502,15 @@
       <c r="C13" s="2">
         <v>0.60606060606060597</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>0.36363636363636359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.5636363636363636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1496,13 +1520,15 @@
       <c r="C14" s="2">
         <v>0.875</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.72500000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1512,13 +1538,15 @@
       <c r="C15" s="2">
         <v>0.5</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1528,13 +1556,15 @@
       <c r="C16" s="2">
         <v>0.45</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1544,13 +1574,15 @@
       <c r="C17" s="2">
         <v>0.24358974358974361</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>0.14615384615384616</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1560,13 +1592,15 @@
       <c r="C18" s="2">
         <v>0.54545454545454541</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0.32727272727272722</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1576,13 +1610,15 @@
       <c r="C19" s="2">
         <v>0.875</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1592,13 +1628,15 @@
       <c r="C20" s="2">
         <v>0.7857142857142857</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>0.47142857142857142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.67142857142857149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1608,13 +1646,15 @@
       <c r="C21" s="2">
         <v>0.9</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.94000000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1624,13 +1664,15 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1640,13 +1682,15 @@
       <c r="C23" s="2">
         <v>0.45</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.47000000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1656,13 +1700,15 @@
       <c r="C24" s="2">
         <v>0.56862745098039214</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>0.34117647058823525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+        <v>0.54117647058823526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1672,13 +1718,15 @@
       <c r="C25" s="2">
         <v>0.77493010251630945</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>0.46495806150978564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.8649580615097856</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -1688,13 +1736,15 @@
       <c r="C26" s="2">
         <v>0.65</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -1704,13 +1754,15 @@
       <c r="C27" s="2">
         <v>0.83333333333333326</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -1720,13 +1772,15 @@
       <c r="C28" s="2">
         <v>0.30952380952380948</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>0.18571428571428569</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>0.58571428571428574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -1736,13 +1790,15 @@
       <c r="C29" s="2">
         <v>0.875</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -1752,13 +1808,15 @@
       <c r="C30" s="2">
         <v>0.91666666666666674</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -1768,13 +1826,15 @@
       <c r="C31" s="2">
         <v>0.59027777777777779</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.5541666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -1784,13 +1844,15 @@
       <c r="C32" s="2">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -1800,13 +1862,15 @@
       <c r="C33" s="2">
         <v>0.51587301587301582</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>0.30952380952380948</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.50952380952380949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -1816,13 +1880,15 @@
       <c r="C34" s="2">
         <v>1</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -1832,13 +1898,15 @@
       <c r="C35" s="2">
         <v>0.375</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>0.22499999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
@@ -1848,13 +1916,15 @@
       <c r="C36" s="2">
         <v>0</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -1864,13 +1934,15 @@
       <c r="C37" s="2">
         <v>0.79285714285714293</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>0.47571428571428576</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.87571428571428578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
@@ -1880,13 +1952,15 @@
       <c r="C38" s="2">
         <v>0.3611111111111111</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>0.21666666666666665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.41666666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
@@ -1896,13 +1970,15 @@
       <c r="C39" s="2">
         <v>1</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -1912,13 +1988,15 @@
       <c r="C40" s="2">
         <v>0.47023809523809518</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>0.28214285714285708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.4821428571428571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -1928,13 +2006,15 @@
       <c r="C41" s="2">
         <v>0.51298701298701299</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>0.30779220779220778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>0.70779220779220786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
@@ -1944,13 +2024,15 @@
       <c r="C42" s="2">
         <v>0.78219696969696972</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>0.4693181818181818</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.86931818181818188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
@@ -1960,13 +2042,15 @@
       <c r="C43" s="2">
         <v>0.8</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
@@ -1976,13 +2060,15 @@
       <c r="C44" s="2">
         <v>0.5</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>89</v>
       </c>
@@ -1992,13 +2078,15 @@
       <c r="C45" s="2">
         <v>0.8784313725490196</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
       <c r="E45" s="2">
         <f t="shared" si="0"/>
-        <v>0.52705882352941169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.92705882352941171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
@@ -2008,13 +2096,15 @@
       <c r="C46" s="2">
         <v>0.75</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E46" s="2">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.64999999999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
@@ -2024,13 +2114,15 @@
       <c r="C47" s="2">
         <v>0.75</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
       <c r="E47" s="2">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -2040,13 +2132,15 @@
       <c r="C48" s="2">
         <v>0</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
       <c r="E48" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
@@ -2056,13 +2150,15 @@
       <c r="C49" s="2">
         <v>0.64601063829787231</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E49" s="2">
         <f t="shared" si="0"/>
-        <v>0.38760638297872335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.58760638297872336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>99</v>
       </c>
@@ -2072,13 +2168,15 @@
       <c r="C50" s="2">
         <v>0.5</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E50" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>101</v>
       </c>
@@ -2088,13 +2186,15 @@
       <c r="C51" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
       <c r="E51" s="2">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>103</v>
       </c>
@@ -2104,13 +2204,15 @@
       <c r="C52" s="2">
         <v>0.85714285714285721</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
       <c r="E52" s="2">
         <f t="shared" si="0"/>
-        <v>0.51428571428571435</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.91428571428571437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
@@ -2120,13 +2222,15 @@
       <c r="C53" s="2">
         <v>0.9</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
       <c r="E53" s="2">
         <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.94000000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>107</v>
       </c>
@@ -2136,13 +2240,15 @@
       <c r="C54" s="2">
         <v>0.43076923076923079</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
       <c r="E54" s="2">
         <f t="shared" si="0"/>
-        <v>0.25846153846153846</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.65846153846153843</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>109</v>
       </c>
@@ -2152,13 +2258,15 @@
       <c r="C55" s="2">
         <v>0.59027777777777779</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
       <c r="E55" s="2">
         <f t="shared" si="0"/>
-        <v>0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>0.75416666666666665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -2168,13 +2276,15 @@
       <c r="C56" s="2">
         <v>0.91727272727272724</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
       <c r="E56" s="2">
         <f t="shared" si="0"/>
-        <v>0.55036363636363628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.9503636363636363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>113</v>
       </c>
@@ -2184,13 +2294,15 @@
       <c r="C57" s="2">
         <v>0.72916666666666674</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
       <c r="E57" s="2">
         <f t="shared" si="0"/>
-        <v>0.43750000000000006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.83750000000000013</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>115</v>
       </c>
@@ -2200,13 +2312,15 @@
       <c r="C58" s="2">
         <v>1</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
       <c r="E58" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>117</v>
       </c>
@@ -2216,13 +2330,15 @@
       <c r="C59" s="2">
         <v>0.625</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
       <c r="E59" s="2">
         <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>119</v>
       </c>
@@ -2232,13 +2348,15 @@
       <c r="C60" s="2">
         <v>0.75</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
       <c r="E60" s="2">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -2248,13 +2366,15 @@
       <c r="C61" s="2">
         <v>0.26785714285714279</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
       <c r="E61" s="2">
         <f t="shared" si="0"/>
-        <v>0.16071428571428567</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.56071428571428572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>123</v>
       </c>
@@ -2264,13 +2384,15 @@
       <c r="C62" s="2">
         <v>0.42727272727272719</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E62" s="2">
         <f t="shared" si="0"/>
-        <v>0.25636363636363629</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.4563636363636363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>125</v>
       </c>
@@ -2280,13 +2402,15 @@
       <c r="C63" s="2">
         <v>0.26666666666666672</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
       <c r="E63" s="2">
         <f t="shared" si="0"/>
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>127</v>
       </c>
@@ -2296,13 +2420,15 @@
       <c r="C64" s="2">
         <v>0</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
       <c r="E64" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="102" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>129</v>
       </c>
@@ -2312,13 +2438,15 @@
       <c r="C65" s="2">
         <v>0.8311195445920303</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
       <c r="E65" s="2">
         <f t="shared" si="0"/>
-        <v>0.49867172675521815</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.89867172675521823</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>131</v>
       </c>
@@ -2328,13 +2456,15 @@
       <c r="C66" s="2">
         <v>0.671875</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
       <c r="E66" s="2">
         <f t="shared" si="0"/>
         <v>0.40312500000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>133</v>
       </c>
@@ -2344,13 +2474,15 @@
       <c r="C67" s="2">
         <v>0.29285714285714282</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E67" s="2">
         <f t="shared" ref="E67:E130" si="1">0.6*C67+0.4*D67</f>
-        <v>0.17571428571428568</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.37571428571428567</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>135</v>
       </c>
@@ -2360,13 +2492,15 @@
       <c r="C68" s="2">
         <v>0</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
       <c r="E68" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>137</v>
       </c>
@@ -2376,13 +2510,15 @@
       <c r="C69" s="2">
         <v>0.6333333333333333</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E69" s="2">
         <f t="shared" si="1"/>
-        <v>0.37999999999999995</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>139</v>
       </c>
@@ -2392,13 +2528,15 @@
       <c r="C70" s="2">
         <v>0.82499999999999996</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E70" s="2">
         <f t="shared" si="1"/>
-        <v>0.49499999999999994</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="145.75" x14ac:dyDescent="0.4">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>141</v>
       </c>
@@ -2408,13 +2546,15 @@
       <c r="C71" s="2">
         <v>0.79431524547803622</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
       <c r="E71" s="2">
         <f t="shared" si="1"/>
-        <v>0.47658914728682172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.87658914728682169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>143</v>
       </c>
@@ -2424,13 +2564,15 @@
       <c r="C72" s="2">
         <v>0.77777777777777779</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
       <c r="E72" s="2">
         <f t="shared" si="1"/>
-        <v>0.46666666666666667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>145</v>
       </c>
@@ -2440,13 +2582,15 @@
       <c r="C73" s="2">
         <v>0.72115384615384615</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
       <c r="E73" s="2">
         <f t="shared" si="1"/>
-        <v>0.43269230769230765</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.83269230769230762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>147</v>
       </c>
@@ -2456,13 +2600,15 @@
       <c r="C74" s="2">
         <v>1</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
       <c r="E74" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>149</v>
       </c>
@@ -2472,13 +2618,15 @@
       <c r="C75" s="2">
         <v>0.54947368421052634</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
       <c r="E75" s="2">
         <f t="shared" si="1"/>
-        <v>0.3296842105263158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.72968421052631582</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>151</v>
       </c>
@@ -2488,13 +2636,15 @@
       <c r="C76" s="2">
         <v>0.42954545454545462</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E76" s="2">
         <f t="shared" si="1"/>
-        <v>0.25772727272727275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.45772727272727276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>153</v>
       </c>
@@ -2504,13 +2654,15 @@
       <c r="C77" s="2">
         <v>0.7857142857142857</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
       <c r="E77" s="2">
         <f t="shared" si="1"/>
-        <v>0.47142857142857142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.87142857142857144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>155</v>
       </c>
@@ -2520,13 +2672,15 @@
       <c r="C78" s="2">
         <v>0.66818181818181821</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E78" s="2">
         <f t="shared" si="1"/>
-        <v>0.40090909090909094</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.60090909090909095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>157</v>
       </c>
@@ -2536,13 +2690,15 @@
       <c r="C79" s="2">
         <v>0.75</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
       <c r="E79" s="2">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>159</v>
       </c>
@@ -2552,13 +2708,15 @@
       <c r="C80" s="2">
         <v>0.7</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
       <c r="E80" s="2">
         <f t="shared" si="1"/>
         <v>0.42</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
@@ -2568,13 +2726,15 @@
       <c r="C81" s="2">
         <v>0.26666666666666672</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
       <c r="E81" s="2">
         <f t="shared" si="1"/>
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>163</v>
       </c>
@@ -2584,13 +2744,15 @@
       <c r="C82" s="2">
         <v>0.63636363636363635</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
       <c r="E82" s="2">
         <f t="shared" si="1"/>
-        <v>0.38181818181818178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.78181818181818175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>165</v>
       </c>
@@ -2600,13 +2762,15 @@
       <c r="C83" s="2">
         <v>0.75</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
       <c r="E83" s="2">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>167</v>
       </c>
@@ -2616,13 +2780,15 @@
       <c r="C84" s="2">
         <v>0.70714285714285707</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
       <c r="E84" s="2">
         <f t="shared" si="1"/>
-        <v>0.42428571428571421</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.82428571428571429</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>169</v>
       </c>
@@ -2632,13 +2798,15 @@
       <c r="C85" s="2">
         <v>0.5357142857142857</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
       <c r="E85" s="2">
         <f t="shared" si="1"/>
-        <v>0.3214285714285714</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.72142857142857142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>171</v>
       </c>
@@ -2648,13 +2816,15 @@
       <c r="C86" s="2">
         <v>0.26666666666666672</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E86" s="2">
         <f t="shared" si="1"/>
-        <v>0.16000000000000003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.36000000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>173</v>
       </c>
@@ -2664,13 +2834,15 @@
       <c r="C87" s="2">
         <v>0.625</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
       <c r="E87" s="2">
         <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>175</v>
       </c>
@@ -2680,13 +2852,15 @@
       <c r="C88" s="2">
         <v>0.5892857142857143</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E88" s="2">
         <f t="shared" si="1"/>
-        <v>0.35357142857142859</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.5535714285714286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>177</v>
       </c>
@@ -2696,13 +2870,15 @@
       <c r="C89" s="2">
         <v>1</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
       <c r="E89" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>179</v>
       </c>
@@ -2712,13 +2888,15 @@
       <c r="C90" s="2">
         <v>0.62272727272727268</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E90" s="2">
         <f t="shared" si="1"/>
-        <v>0.3736363636363636</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.57363636363636361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>181</v>
       </c>
@@ -2728,13 +2906,15 @@
       <c r="C91" s="2">
         <v>0.80625000000000002</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
       <c r="E91" s="2">
         <f t="shared" si="1"/>
-        <v>0.48375000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.88375000000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>183</v>
       </c>
@@ -2744,13 +2924,15 @@
       <c r="C92" s="2">
         <v>0.72916666666666674</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
       <c r="E92" s="2">
         <f t="shared" si="1"/>
-        <v>0.43750000000000006</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.83750000000000013</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>185</v>
       </c>
@@ -2760,13 +2942,15 @@
       <c r="C93" s="2">
         <v>0.5357142857142857</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
       <c r="E93" s="2">
         <f t="shared" si="1"/>
-        <v>0.3214285714285714</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.72142857142857142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>187</v>
       </c>
@@ -2776,13 +2960,15 @@
       <c r="C94" s="2">
         <v>0.71405228758169936</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
       <c r="E94" s="2">
         <f t="shared" si="1"/>
-        <v>0.42843137254901958</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>0.82843137254901955</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>189</v>
       </c>
@@ -2792,13 +2978,15 @@
       <c r="C95" s="2">
         <v>0.87931034482758619</v>
       </c>
-      <c r="D95" s="2"/>
+      <c r="D95" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E95" s="2">
         <f t="shared" si="1"/>
-        <v>0.52758620689655167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.72758620689655173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>191</v>
       </c>
@@ -2808,13 +2996,15 @@
       <c r="C96" s="2">
         <v>0.87121212121212122</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E96" s="2">
         <f t="shared" si="1"/>
-        <v>0.52272727272727271</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.72272727272727266</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>193</v>
       </c>
@@ -2824,13 +3014,15 @@
       <c r="C97" s="2">
         <v>0.9</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
       <c r="E97" s="2">
         <f t="shared" si="1"/>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.94000000000000006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>195</v>
       </c>
@@ -2840,13 +3032,15 @@
       <c r="C98" s="2">
         <v>0.3666666666666667</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
       <c r="E98" s="2">
         <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>197</v>
       </c>
@@ -2856,13 +3050,15 @@
       <c r="C99" s="2">
         <v>0.76666666666666661</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
       <c r="E99" s="2">
         <f t="shared" si="1"/>
-        <v>0.45999999999999996</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>199</v>
       </c>
@@ -2872,13 +3068,15 @@
       <c r="C100" s="2">
         <v>0.73333333333333339</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
       <c r="E100" s="2">
         <f t="shared" si="1"/>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>201</v>
       </c>
@@ -2888,13 +3086,15 @@
       <c r="C101" s="2">
         <v>8.1250000000000003E-2</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
       <c r="E101" s="2">
         <f t="shared" si="1"/>
         <v>4.8750000000000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>203</v>
       </c>
@@ -2904,13 +3104,15 @@
       <c r="C102" s="2">
         <v>0.67999999999999994</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
       <c r="E102" s="2">
         <f t="shared" si="1"/>
-        <v>0.40799999999999997</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>205</v>
       </c>
@@ -2920,13 +3122,15 @@
       <c r="C103" s="2">
         <v>0.76923076923076927</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
       <c r="E103" s="2">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.86153846153846159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>207</v>
       </c>
@@ -2936,13 +3140,15 @@
       <c r="C104" s="2">
         <v>0.6</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
       <c r="E104" s="2">
         <f t="shared" si="1"/>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>209</v>
       </c>
@@ -2952,13 +3158,15 @@
       <c r="C105" s="2">
         <v>0</v>
       </c>
-      <c r="D105" s="2"/>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
       <c r="E105" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>211</v>
       </c>
@@ -2968,13 +3176,15 @@
       <c r="C106" s="2">
         <v>0.88932806324110669</v>
       </c>
-      <c r="D106" s="2"/>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
       <c r="E106" s="2">
         <f t="shared" si="1"/>
-        <v>0.53359683794466395</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.93359683794466397</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>213</v>
       </c>
@@ -2984,13 +3194,15 @@
       <c r="C107" s="2">
         <v>0.83333333333333326</v>
       </c>
-      <c r="D107" s="2"/>
+      <c r="D107" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E107" s="2">
         <f t="shared" si="1"/>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>215</v>
       </c>
@@ -3000,13 +3212,15 @@
       <c r="C108" s="2">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D108" s="2"/>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
       <c r="E108" s="2">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>217</v>
       </c>
@@ -3016,13 +3230,15 @@
       <c r="C109" s="2">
         <v>0.58741258741258739</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
       <c r="E109" s="2">
         <f t="shared" si="1"/>
-        <v>0.35244755244755244</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.75244755244755246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>219</v>
       </c>
@@ -3032,13 +3248,15 @@
       <c r="C110" s="2">
         <v>1</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
       <c r="E110" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>221</v>
       </c>
@@ -3048,13 +3266,15 @@
       <c r="C111" s="2">
         <v>0.7</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
       <c r="E111" s="2">
         <f t="shared" si="1"/>
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>223</v>
       </c>
@@ -3064,13 +3284,15 @@
       <c r="C112" s="2">
         <v>0</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
       <c r="E112" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>225</v>
       </c>
@@ -3080,13 +3302,15 @@
       <c r="C113" s="2">
         <v>0.1714285714285714</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
       <c r="E113" s="2">
         <f t="shared" si="1"/>
         <v>0.10285714285714284</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>227</v>
       </c>
@@ -3096,13 +3320,15 @@
       <c r="C114" s="2">
         <v>0.3611111111111111</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
       <c r="E114" s="2">
         <f t="shared" si="1"/>
-        <v>0.21666666666666665</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>229</v>
       </c>
@@ -3112,13 +3338,15 @@
       <c r="C115" s="2">
         <v>0.84593837535014005</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
       <c r="E115" s="2">
         <f t="shared" si="1"/>
-        <v>0.50756302521008401</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.90756302521008403</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>231</v>
       </c>
@@ -3128,13 +3356,15 @@
       <c r="C116" s="2">
         <v>0.72380952380952379</v>
       </c>
-      <c r="D116" s="2"/>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
       <c r="E116" s="2">
         <f t="shared" si="1"/>
         <v>0.43428571428571427</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>233</v>
       </c>
@@ -3144,13 +3374,15 @@
       <c r="C117" s="2">
         <v>0.29166666666666657</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
       <c r="E117" s="2">
         <f t="shared" si="1"/>
         <v>0.17499999999999993</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>235</v>
       </c>
@@ -3160,13 +3392,15 @@
       <c r="C118" s="2">
         <v>0.88888888888888884</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
       <c r="E118" s="2">
         <f t="shared" si="1"/>
-        <v>0.53333333333333333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>237</v>
       </c>
@@ -3176,13 +3410,15 @@
       <c r="C119" s="2">
         <v>0.75</v>
       </c>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E119" s="2">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.64999999999999991</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>239</v>
       </c>
@@ -3192,13 +3428,15 @@
       <c r="C120" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D120" s="2"/>
+      <c r="D120" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E120" s="2">
         <f t="shared" si="1"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>241</v>
       </c>
@@ -3208,13 +3446,15 @@
       <c r="C121" s="2">
         <v>0.5</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
       <c r="E121" s="2">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>243</v>
       </c>
@@ -3224,13 +3464,15 @@
       <c r="C122" s="2">
         <v>0.59340659340659341</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
       <c r="E122" s="2">
         <f t="shared" si="1"/>
-        <v>0.35604395604395606</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.75604395604395602</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>245</v>
       </c>
@@ -3240,13 +3482,15 @@
       <c r="C123" s="2">
         <v>0.64615384615384608</v>
       </c>
-      <c r="D123" s="2"/>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
       <c r="E123" s="2">
         <f t="shared" si="1"/>
-        <v>0.38769230769230761</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.78769230769230769</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>247</v>
       </c>
@@ -3256,13 +3500,15 @@
       <c r="C124" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D124" s="2"/>
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
       <c r="E124" s="2">
         <f t="shared" si="1"/>
-        <v>0.39999999999999997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>249</v>
       </c>
@@ -3272,13 +3518,15 @@
       <c r="C125" s="2">
         <v>0.80808080808080807</v>
       </c>
-      <c r="D125" s="2"/>
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
       <c r="E125" s="2">
         <f t="shared" si="1"/>
         <v>0.48484848484848481</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>251</v>
       </c>
@@ -3288,13 +3536,15 @@
       <c r="C126" s="2">
         <v>0.63492063492063489</v>
       </c>
-      <c r="D126" s="2"/>
+      <c r="D126" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E126" s="2">
         <f t="shared" si="1"/>
-        <v>0.38095238095238093</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.58095238095238089</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>253</v>
       </c>
@@ -3304,13 +3554,15 @@
       <c r="C127" s="2">
         <v>1</v>
       </c>
-      <c r="D127" s="2"/>
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
       <c r="E127" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>254</v>
       </c>
@@ -3320,13 +3572,15 @@
       <c r="C128" s="2">
         <v>0.65530303030303028</v>
       </c>
-      <c r="D128" s="2"/>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
       <c r="E128" s="2">
         <f t="shared" si="1"/>
-        <v>0.39318181818181813</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.79318181818181821</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>256</v>
       </c>
@@ -3336,13 +3590,15 @@
       <c r="C129" s="2">
         <v>0.66964285714285721</v>
       </c>
-      <c r="D129" s="2"/>
+      <c r="D129" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E129" s="2">
         <f t="shared" si="1"/>
-        <v>0.4017857142857143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.60178571428571437</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>258</v>
       </c>
@@ -3352,13 +3608,15 @@
       <c r="C130" s="2">
         <v>0.6785714285714286</v>
       </c>
-      <c r="D130" s="2"/>
+      <c r="D130" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E130" s="2">
         <f t="shared" si="1"/>
-        <v>0.40714285714285714</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.60714285714285721</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>260</v>
       </c>
@@ -3368,13 +3626,15 @@
       <c r="C131" s="2">
         <v>0.65277777777777779</v>
       </c>
-      <c r="D131" s="2"/>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
       <c r="E131" s="2">
         <f t="shared" ref="E131:E146" si="2">0.6*C131+0.4*D131</f>
-        <v>0.39166666666666666</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.79166666666666674</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>262</v>
       </c>
@@ -3384,13 +3644,15 @@
       <c r="C132" s="2">
         <v>0.81818181818181823</v>
       </c>
-      <c r="D132" s="2"/>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
       <c r="E132" s="2">
         <f t="shared" si="2"/>
         <v>0.49090909090909091</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>264</v>
       </c>
@@ -3400,13 +3662,15 @@
       <c r="C133" s="2">
         <v>0.82638888888888884</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
       <c r="E133" s="2">
         <f t="shared" si="2"/>
-        <v>0.49583333333333329</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>0.89583333333333326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>266</v>
       </c>
@@ -3416,13 +3680,15 @@
       <c r="C134" s="2">
         <v>0.81746031746031744</v>
       </c>
-      <c r="D134" s="2"/>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
       <c r="E134" s="2">
         <f t="shared" si="2"/>
-        <v>0.49047619047619045</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.89047619047619042</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>268</v>
       </c>
@@ -3432,13 +3698,15 @@
       <c r="C135" s="2">
         <v>0.6785714285714286</v>
       </c>
-      <c r="D135" s="2"/>
+      <c r="D135" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E135" s="2">
         <f t="shared" si="2"/>
-        <v>0.40714285714285714</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="102" x14ac:dyDescent="0.4">
+        <v>0.60714285714285721</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>270</v>
       </c>
@@ -3448,13 +3716,15 @@
       <c r="C136" s="2">
         <v>0.2489177489177489</v>
       </c>
-      <c r="D136" s="2"/>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
       <c r="E136" s="2">
         <f t="shared" si="2"/>
         <v>0.14935064935064934</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>272</v>
       </c>
@@ -3464,13 +3734,15 @@
       <c r="C137" s="2">
         <v>0</v>
       </c>
-      <c r="D137" s="2"/>
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
       <c r="E137" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>274</v>
       </c>
@@ -3480,13 +3752,15 @@
       <c r="C138" s="2">
         <v>0.75661375661375663</v>
       </c>
-      <c r="D138" s="2"/>
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
       <c r="E138" s="2">
         <f t="shared" si="2"/>
-        <v>0.45396825396825397</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.85396825396825404</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>276</v>
       </c>
@@ -3496,13 +3770,15 @@
       <c r="C139" s="2">
         <v>0.41666666666666657</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139" s="2">
+        <v>1</v>
+      </c>
       <c r="E139" s="2">
         <f t="shared" si="2"/>
-        <v>0.24999999999999994</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.64999999999999991</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>278</v>
       </c>
@@ -3512,13 +3788,15 @@
       <c r="C140" s="2">
         <v>0.875</v>
       </c>
-      <c r="D140" s="2"/>
+      <c r="D140" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E140" s="2">
         <f t="shared" si="2"/>
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="160.30000000000001" x14ac:dyDescent="0.4">
+        <v>0.72500000000000009</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>280</v>
       </c>
@@ -3528,13 +3806,15 @@
       <c r="C141" s="2">
         <v>0.67238749046529367</v>
       </c>
-      <c r="D141" s="2"/>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
       <c r="E141" s="2">
         <f t="shared" si="2"/>
-        <v>0.40343249427917621</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.80343249427917618</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>282</v>
       </c>
@@ -3544,13 +3824,15 @@
       <c r="C142" s="2">
         <v>0.875</v>
       </c>
-      <c r="D142" s="2"/>
+      <c r="D142" s="2">
+        <v>1</v>
+      </c>
       <c r="E142" s="2">
         <f t="shared" si="2"/>
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>284</v>
       </c>
@@ -3560,13 +3842,15 @@
       <c r="C143" s="2">
         <v>0.73750000000000004</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="2">
+        <v>1</v>
+      </c>
       <c r="E143" s="2">
         <f t="shared" si="2"/>
-        <v>0.4425</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>0.84250000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>286</v>
       </c>
@@ -3576,13 +3860,15 @@
       <c r="C144" s="2">
         <v>0.90909090909090906</v>
       </c>
-      <c r="D144" s="2"/>
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
       <c r="E144" s="2">
         <f t="shared" si="2"/>
-        <v>0.54545454545454541</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.94545454545454544</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>288</v>
       </c>
@@ -3592,13 +3878,15 @@
       <c r="C145" s="2">
         <v>1</v>
       </c>
-      <c r="D145" s="2"/>
+      <c r="D145" s="2">
+        <v>1</v>
+      </c>
       <c r="E145" s="2">
         <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>290</v>
       </c>
@@ -3608,7 +3896,9 @@
       <c r="C146" s="2">
         <v>0.5</v>
       </c>
-      <c r="D146" s="2"/>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
       <c r="E146" s="2">
         <f t="shared" si="2"/>
         <v>0.3</v>
